--- a/ifqe-portal-backend5/templates/3.2.1_Template.xlsx
+++ b/ifqe-portal-backend5/templates/3.2.1_Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CHANDAN\Pictures\ifque updted files from 1-3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91981\OneDrive\Documents\ifqe\criteria 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{973192BA-5F69-4E9A-81E5-6467F29AEA39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53774F8F-023D-4CEF-AC0A-B492012DF89C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1B2A4E0D-773F-430B-A3A9-B5AEC394884B}"/>
   </bookViews>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>3.2.1 Induction Program for students</t>
   </si>
@@ -47,6 +38,12 @@
 3. Student attendance record
 4. Absentees list and reason
 5. Feedback</t>
+  </si>
+  <si>
+    <t>Evidence Link</t>
+  </si>
+  <si>
+    <t>to be uploaded in portal</t>
   </si>
 </sst>
 </file>
@@ -62,25 +59,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="26"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="20"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="26"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -141,13 +135,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -166,9 +162,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -206,7 +202,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -312,7 +308,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -454,7 +450,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -462,33 +458,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A3862F5-2696-417F-AFFD-C82FB1D6BEA5}">
-  <dimension ref="C1:C4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="98.77734375" customWidth="1"/>
+    <col min="1" max="2" width="60.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="3:3" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="C2" s="1" t="s">
+    <row r="1" spans="1:2" ht="33" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2"/>
     </row>
-    <row r="3" spans="3:3" ht="49.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C3" s="3" t="s">
+    <row r="2" spans="1:2" ht="49.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="3:3" ht="208.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C4" s="2" t="s">
+    <row r="3" spans="1:2" ht="130.05000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
+    <row r="7" spans="1:2" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
